--- a/xChanger.MVC/wwwroot/data/groups.xlsx
+++ b/xChanger.MVC/wwwroot/data/groups.xlsx
@@ -17,10 +17,10 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>Java</t>
+    <t>Java+</t>
   </si>
   <si>
-    <t>.NET</t>
+    <t>.NETT</t>
   </si>
   <si>
     <t>PHP</t>
